--- a/biology/Zoologie/Cameroceras/Cameroceras.xlsx
+++ b/biology/Zoologie/Cameroceras/Cameroceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cameroceras est un genre éteint de nautiloïdes géants, qui vivait à l'Ordovicien. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cameroceras vient du grec : « kamara » pour chambre et « ceras » pour corne qui indiquent la forme de « corne cloisonnée en chambres » de la coquille de l'animal.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille a été évaluée à partir de restes fragmentaires de sa coquille. Initialement estimée à 9 m[1] la longueur de celle-ci a été ensuite révisée à environ 6 m[2] ce qui en fait tout de même un des plus grands céphalopodes orthocônes et mollusques du Paléozoïque ayant existé. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille a été évaluée à partir de restes fragmentaires de sa coquille. Initialement estimée à 9 m la longueur de celle-ci a été ensuite révisée à environ 6 m ce qui en fait tout de même un des plus grands céphalopodes orthocônes et mollusques du Paléozoïque ayant existé. 
 Il se nourrissait de scorpions de mer et de trilobites.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† C. alternatum
 † C. hennepini
